--- a/public/listOfCities.xlsx
+++ b/public/listOfCities.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E80C74-7128-4A9C-A100-201B8FA64295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Companies" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="1035">
   <si>
     <t>Артикул</t>
   </si>
@@ -3114,13 +3115,19 @@
   </si>
   <si>
     <t>Шахты</t>
+  </si>
+  <si>
+    <t>mapLink</t>
+  </si>
+  <si>
+    <t>https://music.yandex.ru/artist/5271861</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3143,6 +3150,13 @@
       <sz val="11"/>
       <color rgb="FFB4C7DC"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3200,7 +3214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3219,6 +3233,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3498,7 +3513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -14222,35 +14237,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>1031</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="8" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1028</v>
       </c>
       <c r="B2" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1032</v>
       </c>
@@ -14260,5 +14282,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>